--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98AF0A4-8C9E-4DBF-8D7D-8F5BAB55A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACA539-35B3-4907-A996-8B8DD5EB0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="175">
   <si>
     <t>Complemento</t>
   </si>
@@ -311,9 +311,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010039</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
@@ -504,6 +498,72 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - UNICA</t>
+  </si>
+  <si>
+    <t>S230009</t>
+  </si>
+  <si>
+    <t>PA PLASTICA P/ LIXO - CABO LONGO</t>
+  </si>
+  <si>
+    <t>S110020</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - UNICA</t>
+  </si>
+  <si>
+    <t>S020036</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - PACOTE C/5</t>
+  </si>
+  <si>
+    <t>S010046</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
   </si>
 </sst>
 </file>
@@ -586,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -603,21 +663,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -949,989 +1003,1313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>809</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>1045</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="4">
+        <v>154</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="5">
         <v>899</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="5">
         <v>896</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="5">
+      <c r="D34" s="5">
         <v>898</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D41" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D42" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D43" s="4">
         <v>835</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D45" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D46" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B47" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D47" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D48" s="4">
         <v>910</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B50" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D50" s="4">
         <v>745</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D51" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D52" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D53" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B55" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="4">
+      <c r="D55" s="4">
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B57" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B59" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="4">
+      <c r="D59" s="4">
         <v>820</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="4">
+      <c r="D60" s="4">
         <v>819</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="5">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="5">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="4">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="4">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="5">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="5">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="B74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="4">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="5">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="5">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="5">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B89" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="4">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="4">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="5">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="5">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="5">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="5">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="D89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C81" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="B91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" s="4">
+      <c r="D91" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C85" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C86">
-      <sortCondition ref="A1:A85"/>
+  <autoFilter ref="A1:D91" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
+      <sortCondition ref="A1:A90"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="2" priority="15">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C23 A25:C86">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D91">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C24" numberStoredAsText="1"/>
+    <ignoredError sqref="D40 D1:D38 D41:D71" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACA539-35B3-4907-A996-8B8DD5EB0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC8193D-EEB5-4907-BDBE-CE0EA09974DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="179">
   <si>
     <t>Complemento</t>
   </si>
@@ -560,10 +560,22 @@
     <t>S010046</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
-    <t>S050008</t>
+    <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>S010076</t>
+  </si>
+  <si>
+    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S010034</t>
+  </si>
+  <si>
+    <t>KIT MOP UMIDO - UNICA</t>
+  </si>
+  <si>
+    <t>S010086</t>
   </si>
 </sst>
 </file>
@@ -707,9 +719,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -747,7 +759,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -853,7 +865,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -995,7 +1007,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,13 +1563,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1565,27 +1577,27 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1593,30 +1605,30 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42" s="4">
-        <v>80</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="D43" s="4">
-        <v>835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,161 +1787,161 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="D55" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>166</v>
+        <v>176</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D59" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="D60" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D61" s="4">
-        <v>750</v>
+        <v>820</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D62" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D63" s="4">
-        <v>395</v>
+        <v>750</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D64" s="4">
-        <v>86</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D65" s="4">
-        <v>87</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>154</v>
@@ -1937,117 +1949,117 @@
       <c r="C66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>168</v>
+      <c r="D66" s="4">
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D67" s="4">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="4">
-        <v>54</v>
+        <v>96</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="5">
-        <v>994</v>
+        <v>99</v>
+      </c>
+      <c r="D69" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="5">
-        <v>695</v>
+        <v>99</v>
+      </c>
+      <c r="D70" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>152</v>
+        <v>102</v>
+      </c>
+      <c r="D71" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="D72" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2055,147 +2067,147 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D75" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D76" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="D77" s="4">
-        <v>107</v>
+        <v>884</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D78" s="4">
-        <v>449</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D79" s="4">
-        <v>704</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D80" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="5">
-        <v>163</v>
+        <v>113</v>
+      </c>
+      <c r="D81" s="4">
+        <v>704</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="5">
-        <v>799</v>
+      <c r="D82" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D83" s="5">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D84" s="5">
-        <v>569</v>
+        <v>799</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>160</v>
@@ -2204,112 +2216,140 @@
         <v>120</v>
       </c>
       <c r="D85" s="5">
-        <v>762</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="4">
-        <v>211</v>
+        <v>120</v>
+      </c>
+      <c r="D86" s="5">
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="D87" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D88" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D89" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D90" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="B93" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D93" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D91" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
-      <sortCondition ref="A1:A90"/>
+  <autoFilter ref="A1:D93" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
+      <sortCondition ref="A1:A92"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="22">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D91">
+  <conditionalFormatting sqref="A2:D93">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D40 D1:D38 D41:D71" numberStoredAsText="1"/>
+    <ignoredError sqref="D1:D38 D57:D73 D44:D54 D39:D42" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC8193D-EEB5-4907-BDBE-CE0EA09974DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2415E75F-FE69-45F4-8B85-9070F3F18CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="180">
   <si>
     <t>Complemento</t>
   </si>
@@ -440,9 +440,6 @@
     <t>S010087</t>
   </si>
   <si>
-    <t>ENVELOPE A4 - NATURAL - NATURAL</t>
-  </si>
-  <si>
     <t>S020041</t>
   </si>
   <si>
@@ -576,6 +573,12 @@
   </si>
   <si>
     <t>S010086</t>
+  </si>
+  <si>
+    <t>ENVELOPE A4 - OURO - OURO</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1017,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1048,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1062,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1076,7 +1088,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>128</v>
@@ -1090,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1104,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1118,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1132,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1146,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1160,7 +1172,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1174,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1188,7 +1200,7 @@
         <v>129</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>130</v>
@@ -1202,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1216,7 +1228,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1230,7 +1242,7 @@
         <v>131</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1244,7 +1256,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1258,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1272,7 +1284,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1286,7 +1298,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -1300,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1314,7 +1326,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>34</v>
@@ -1325,10 +1337,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>132</v>
@@ -1342,7 +1354,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>36</v>
@@ -1353,16 +1365,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>38</v>
@@ -1384,7 +1396,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>40</v>
@@ -1395,16 +1407,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="4">
-        <v>13</v>
+      <c r="D27" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1412,7 +1424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>42</v>
@@ -1426,7 +1438,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>44</v>
@@ -1440,7 +1452,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>46</v>
@@ -1454,7 +1466,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>48</v>
@@ -1468,7 +1480,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>48</v>
@@ -1482,7 +1494,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>48</v>
@@ -1496,7 +1508,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>48</v>
@@ -1507,13 +1519,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1524,7 +1536,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>53</v>
@@ -1538,7 +1550,7 @@
         <v>54</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>53</v>
@@ -1549,16 +1561,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,7 +1578,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>56</v>
@@ -1580,7 +1592,7 @@
         <v>57</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>58</v>
@@ -1594,7 +1606,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>60</v>
@@ -1608,7 +1620,7 @@
         <v>61</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>62</v>
@@ -1619,13 +1631,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1636,7 +1648,7 @@
         <v>63</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>64</v>
@@ -1650,7 +1662,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>66</v>
@@ -1664,7 +1676,7 @@
         <v>67</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>68</v>
@@ -1678,7 +1690,7 @@
         <v>69</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>70</v>
@@ -1692,7 +1704,7 @@
         <v>71</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>70</v>
@@ -1706,7 +1718,7 @@
         <v>72</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>73</v>
@@ -1720,7 +1732,7 @@
         <v>74</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>75</v>
@@ -1734,7 +1746,7 @@
         <v>76</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>77</v>
@@ -1748,7 +1760,7 @@
         <v>78</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>77</v>
@@ -1762,7 +1774,7 @@
         <v>79</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>80</v>
@@ -1776,7 +1788,7 @@
         <v>81</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>82</v>
@@ -1787,13 +1799,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1801,13 +1813,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1818,7 +1830,7 @@
         <v>83</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>84</v>
@@ -1829,16 +1841,16 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,7 +1858,7 @@
         <v>85</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>86</v>
@@ -1857,13 +1869,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1874,7 +1886,7 @@
         <v>87</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>88</v>
@@ -1888,7 +1900,7 @@
         <v>89</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>88</v>
@@ -1899,10 +1911,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>90</v>
@@ -1916,7 +1928,7 @@
         <v>91</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>92</v>
@@ -1930,7 +1942,7 @@
         <v>93</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>94</v>
@@ -1944,7 +1956,7 @@
         <v>95</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>96</v>
@@ -1958,7 +1970,7 @@
         <v>97</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>96</v>
@@ -1969,16 +1981,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,7 +1998,7 @@
         <v>98</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>99</v>
@@ -2000,7 +2012,7 @@
         <v>100</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>99</v>
@@ -2014,7 +2026,7 @@
         <v>103</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>102</v>
@@ -2028,7 +2040,7 @@
         <v>101</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>102</v>
@@ -2039,16 +2051,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,7 +2068,7 @@
         <v>104</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>105</v>
@@ -2067,13 +2079,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2084,7 +2096,7 @@
         <v>106</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>107</v>
@@ -2095,13 +2107,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D77" s="4">
         <v>884</v>
@@ -2112,7 +2124,7 @@
         <v>108</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>109</v>
@@ -2126,7 +2138,7 @@
         <v>110</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>111</v>
@@ -2140,7 +2152,7 @@
         <v>112</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>113</v>
@@ -2154,7 +2166,7 @@
         <v>114</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>113</v>
@@ -2168,7 +2180,7 @@
         <v>115</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>116</v>
@@ -2182,7 +2194,7 @@
         <v>117</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>116</v>
@@ -2196,7 +2208,7 @@
         <v>118</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>116</v>
@@ -2210,7 +2222,7 @@
         <v>119</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>120</v>
@@ -2224,7 +2236,7 @@
         <v>121</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>120</v>
@@ -2238,7 +2250,7 @@
         <v>122</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>120</v>
@@ -2252,7 +2264,7 @@
         <v>123</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>124</v>
@@ -2263,13 +2275,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2277,13 +2289,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2291,13 +2303,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
@@ -2305,13 +2317,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D92" s="4">
         <v>15</v>
@@ -2322,7 +2334,7 @@
         <v>125</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>126</v>
@@ -2338,18 +2350,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D93">
+  <conditionalFormatting sqref="A2:D26 A28:D93">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:D27">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D1:D38 D57:D73 D44:D54 D39:D42" numberStoredAsText="1"/>
+    <ignoredError sqref="D1:D26 D57:D73 D44:D54 D39:D42 D28:D38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2415E75F-FE69-45F4-8B85-9070F3F18CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A977A5-8837-48E7-84FE-FDE2BBE2B7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -311,9 +311,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>S020048</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -579,6 +573,12 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -1029,9 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1046,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1060,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1074,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1085,13 +1083,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1102,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1116,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1130,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1144,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1158,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1172,7 +1170,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1186,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1197,13 +1195,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1214,7 +1212,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1228,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1239,10 +1237,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1256,7 +1254,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1270,7 +1268,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1284,7 +1282,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1298,7 +1296,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -1312,7 +1310,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1326,7 +1324,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>34</v>
@@ -1337,13 +1335,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1354,7 +1352,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>36</v>
@@ -1365,16 +1363,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,7 +1380,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>38</v>
@@ -1396,7 +1394,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>40</v>
@@ -1407,16 +1405,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,7 +1422,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>42</v>
@@ -1438,7 +1436,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>44</v>
@@ -1452,7 +1450,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>46</v>
@@ -1466,7 +1464,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>48</v>
@@ -1480,7 +1478,7 @@
         <v>49</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>48</v>
@@ -1494,7 +1492,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>48</v>
@@ -1508,7 +1506,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>48</v>
@@ -1519,13 +1517,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1533,83 +1531,83 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="D36" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>151</v>
+        <v>53</v>
+      </c>
+      <c r="D38" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1617,83 +1615,83 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="4">
-        <v>835</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="5">
+        <v>175</v>
+      </c>
+      <c r="D44" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="4">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="4">
         <v>103</v>
@@ -1701,111 +1699,111 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D51" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D53" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1813,13 +1811,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1827,55 +1825,55 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="D57" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>165</v>
+        <v>84</v>
+      </c>
+      <c r="D58" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1883,55 +1881,55 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D61" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D62" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D63" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D64" s="4">
         <v>553</v>
@@ -1939,13 +1937,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D65" s="4">
         <v>395</v>
@@ -1953,13 +1951,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D66" s="4">
         <v>86</v>
@@ -1967,13 +1965,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D67" s="4">
         <v>87</v>
@@ -1981,27 +1979,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D69" s="4">
         <v>55</v>
@@ -2009,13 +2007,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70" s="4">
         <v>54</v>
@@ -2023,13 +2021,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71" s="5">
         <v>994</v>
@@ -2037,13 +2035,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D72" s="5">
         <v>695</v>
@@ -2051,27 +2049,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2079,13 +2077,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2093,13 +2091,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2107,13 +2105,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D77" s="4">
         <v>884</v>
@@ -2121,13 +2119,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D78" s="4">
         <v>53</v>
@@ -2135,13 +2133,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D79" s="4">
         <v>107</v>
@@ -2149,13 +2147,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D80" s="4">
         <v>449</v>
@@ -2163,13 +2161,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D81" s="4">
         <v>704</v>
@@ -2177,13 +2175,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D82" s="4">
         <v>170</v>
@@ -2191,13 +2189,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D83" s="5">
         <v>163</v>
@@ -2205,13 +2203,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D84" s="5">
         <v>799</v>
@@ -2219,13 +2217,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D85" s="5">
         <v>160</v>
@@ -2233,13 +2231,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D86" s="5">
         <v>569</v>
@@ -2247,13 +2245,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D87" s="5">
         <v>762</v>
@@ -2261,13 +2259,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D88" s="4">
         <v>211</v>
@@ -2275,13 +2273,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2289,13 +2287,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2303,13 +2301,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
@@ -2317,13 +2315,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D92" s="4">
         <v>15</v>
@@ -2331,13 +2329,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2346,27 +2344,27 @@
   </sheetData>
   <autoFilter ref="A1:D93" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
-      <sortCondition ref="A1:A92"/>
+      <sortCondition ref="A1:A93"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="2" priority="26">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D26 A28:D93">
+  <conditionalFormatting sqref="A2:D62 A64:D93">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:D27">
+  <conditionalFormatting sqref="A63:D63">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A27))&gt;0</formula>
+      <formula>LEN(TRIM(A63))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D1:D26 D57:D73 D44:D54 D39:D42 D28:D38" numberStoredAsText="1"/>
+    <ignoredError sqref="D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A977A5-8837-48E7-84FE-FDE2BBE2B7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AE55CA-C85B-4421-AB7A-88D2872BC2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1044,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1058,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1072,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1083,13 +1085,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1100,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1114,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1128,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1142,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1156,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1170,7 +1172,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1184,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1195,13 +1197,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1212,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1226,7 +1228,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1237,10 +1239,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1254,7 +1256,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1268,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1282,7 +1284,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1296,7 +1298,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -1310,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1324,7 +1326,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>34</v>
@@ -1335,13 +1337,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1352,7 +1354,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>36</v>
@@ -1363,16 +1365,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>38</v>
@@ -1394,7 +1396,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>40</v>
@@ -1405,16 +1407,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>42</v>
@@ -1433,27 +1435,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1461,13 +1463,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D31" s="5">
         <v>899</v>
@@ -1475,13 +1477,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="5">
         <v>896</v>
@@ -1489,13 +1491,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="5">
         <v>900</v>
@@ -1503,13 +1505,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5">
         <v>898</v>
@@ -1517,13 +1519,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1531,13 +1533,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1545,13 +1547,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D37" s="4">
         <v>166</v>
@@ -1559,13 +1561,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4">
         <v>167</v>
@@ -1573,27 +1575,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1601,13 +1603,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1615,13 +1617,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D42" s="4">
         <v>80</v>
@@ -1629,13 +1631,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D43" s="4">
         <v>835</v>
@@ -1643,13 +1645,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1657,13 +1659,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -1671,13 +1673,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D46" s="4">
         <v>40</v>
@@ -1685,13 +1687,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D47" s="4">
         <v>103</v>
@@ -1699,13 +1701,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1713,13 +1715,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="4">
         <v>910</v>
@@ -1727,13 +1729,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1741,13 +1743,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D51" s="4">
         <v>745</v>
@@ -1755,13 +1757,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1769,13 +1771,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1783,13 +1785,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
@@ -1797,13 +1799,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1811,13 +1813,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1825,13 +1827,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1839,13 +1841,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1853,27 +1855,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1881,13 +1883,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1895,13 +1897,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D62" s="4">
         <v>820</v>
@@ -1909,13 +1911,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="4">
         <v>819</v>
@@ -1923,13 +1925,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D64" s="4">
         <v>553</v>
@@ -1937,13 +1939,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D65" s="4">
         <v>395</v>
@@ -1951,13 +1953,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D66" s="4">
         <v>86</v>
@@ -1965,13 +1967,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D67" s="4">
         <v>87</v>
@@ -1979,27 +1981,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D69" s="4">
         <v>55</v>
@@ -2007,13 +2009,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D70" s="4">
         <v>54</v>
@@ -2021,13 +2023,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D71" s="5">
         <v>994</v>
@@ -2035,13 +2037,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D72" s="5">
         <v>695</v>
@@ -2049,27 +2051,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2077,13 +2079,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2091,13 +2093,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2105,13 +2107,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D77" s="4">
         <v>884</v>
@@ -2119,13 +2121,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D78" s="4">
         <v>53</v>
@@ -2133,13 +2135,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D79" s="4">
         <v>107</v>
@@ -2147,13 +2149,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D80" s="4">
         <v>449</v>
@@ -2161,13 +2163,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" s="4">
         <v>704</v>
@@ -2175,13 +2177,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D82" s="4">
         <v>170</v>
@@ -2189,13 +2191,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D83" s="5">
         <v>163</v>
@@ -2203,13 +2205,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D84" s="5">
         <v>799</v>
@@ -2217,13 +2219,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D85" s="5">
         <v>160</v>
@@ -2231,13 +2233,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="5">
         <v>569</v>
@@ -2245,13 +2247,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" s="5">
         <v>762</v>
@@ -2259,13 +2261,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D88" s="4">
         <v>211</v>
@@ -2273,13 +2275,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2287,13 +2289,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2301,13 +2303,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
@@ -2315,13 +2317,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D92" s="4">
         <v>15</v>
@@ -2329,13 +2331,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2348,18 +2350,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D62 A64:D93">
+  <conditionalFormatting sqref="A2:D28 A30:D93">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:D63">
+  <conditionalFormatting sqref="A29:D29">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
+      <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AE55CA-C85B-4421-AB7A-88D2872BC2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF0C25A-2CDC-4376-A04A-C79C3B7A2492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -293,9 +293,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1074,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1102,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1116,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1130,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1144,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1158,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1172,7 +1172,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1186,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1228,7 +1228,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1256,7 +1256,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1270,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1284,7 +1284,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1298,7 +1298,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -1312,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1326,7 +1326,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>34</v>
@@ -1337,13 +1337,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>36</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>38</v>
@@ -1396,7 +1396,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>40</v>
@@ -1407,16 +1407,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>42</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>43</v>
@@ -1452,7 +1452,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>45</v>
@@ -1466,7 +1466,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>47</v>
@@ -1480,7 +1480,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>47</v>
@@ -1508,7 +1508,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>47</v>
@@ -1519,13 +1519,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1550,7 +1550,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>52</v>
@@ -1564,7 +1564,7 @@
         <v>53</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>52</v>
@@ -1575,16 +1575,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>54</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>55</v>
@@ -1606,7 +1606,7 @@
         <v>56</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>57</v>
@@ -1620,7 +1620,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>59</v>
@@ -1634,7 +1634,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>61</v>
@@ -1645,13 +1645,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1662,7 +1662,7 @@
         <v>62</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>63</v>
@@ -1676,7 +1676,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>65</v>
@@ -1690,7 +1690,7 @@
         <v>66</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>67</v>
@@ -1704,7 +1704,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>69</v>
@@ -1718,7 +1718,7 @@
         <v>70</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>69</v>
@@ -1732,7 +1732,7 @@
         <v>71</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>72</v>
@@ -1746,7 +1746,7 @@
         <v>73</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>74</v>
@@ -1760,7 +1760,7 @@
         <v>75</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>76</v>
@@ -1774,7 +1774,7 @@
         <v>77</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>76</v>
@@ -1788,7 +1788,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>79</v>
@@ -1802,7 +1802,7 @@
         <v>80</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>81</v>
@@ -1813,13 +1813,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1827,13 +1827,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1844,7 +1844,7 @@
         <v>82</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>83</v>
@@ -1855,41 +1855,41 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D62" s="4">
         <v>820</v>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D63" s="4">
         <v>819</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D64" s="4">
         <v>553</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D65" s="4">
         <v>395</v>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D66" s="4">
         <v>86</v>
@@ -1967,13 +1967,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D67" s="4">
         <v>87</v>
@@ -1981,27 +1981,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D69" s="4">
         <v>55</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" s="4">
         <v>54</v>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D71" s="5">
         <v>994</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D72" s="5">
         <v>695</v>
@@ -2051,27 +2051,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D77" s="4">
         <v>884</v>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D78" s="4">
         <v>53</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D79" s="4">
         <v>107</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D80" s="4">
         <v>449</v>
@@ -2163,13 +2163,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D81" s="4">
         <v>704</v>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D82" s="4">
         <v>170</v>
@@ -2191,13 +2191,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D83" s="5">
         <v>163</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D84" s="5">
         <v>799</v>
@@ -2219,13 +2219,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D85" s="5">
         <v>160</v>
@@ -2233,13 +2233,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D86" s="5">
         <v>569</v>
@@ -2247,13 +2247,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D87" s="5">
         <v>762</v>
@@ -2261,13 +2261,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D88" s="4">
         <v>211</v>
@@ -2275,13 +2275,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2303,13 +2303,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D92" s="4">
         <v>15</v>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2350,18 +2350,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D28 A30:D93">
+  <conditionalFormatting sqref="A2:D59 A61:D93">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:D29">
+  <conditionalFormatting sqref="A60:D60">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A29))&gt;0</formula>
+      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF0C25A-2CDC-4376-A04A-C79C3B7A2492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F59408-BD94-4529-8115-ED142CEEE818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="177">
   <si>
     <t>Complemento</t>
   </si>
@@ -146,18 +146,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -245,15 +233,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -476,12 +458,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -509,9 +485,6 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -579,6 +552,24 @@
   </si>
   <si>
     <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1060,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1074,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1085,13 +1076,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1102,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1116,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1130,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
@@ -1144,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1158,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1172,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1186,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1197,13 +1188,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1214,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -1228,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -1239,10 +1230,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1256,7 +1247,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1270,7 +1261,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -1284,7 +1275,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>28</v>
@@ -1298,7 +1289,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -1312,7 +1303,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1326,7 +1317,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>34</v>
@@ -1337,69 +1328,69 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>147</v>
+        <v>123</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1407,27 +1398,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1435,13 +1426,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4">
         <v>1159</v>
@@ -1449,13 +1440,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1463,13 +1454,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D31" s="5">
         <v>899</v>
@@ -1477,13 +1468,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D32" s="5">
         <v>896</v>
@@ -1491,13 +1482,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5">
         <v>900</v>
@@ -1505,13 +1496,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D34" s="5">
         <v>898</v>
@@ -1519,13 +1510,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1533,13 +1524,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1547,13 +1538,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D37" s="4">
         <v>166</v>
@@ -1561,13 +1552,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D38" s="4">
         <v>167</v>
@@ -1575,27 +1566,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1603,13 +1594,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1617,13 +1608,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D42" s="4">
         <v>80</v>
@@ -1631,13 +1622,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D43" s="4">
         <v>835</v>
@@ -1645,13 +1636,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1659,13 +1650,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -1673,13 +1664,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D46" s="4">
         <v>40</v>
@@ -1687,13 +1678,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D47" s="4">
         <v>103</v>
@@ -1701,13 +1692,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1715,13 +1706,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D49" s="4">
         <v>910</v>
@@ -1729,13 +1720,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1743,13 +1734,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D51" s="4">
         <v>745</v>
@@ -1757,13 +1748,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1771,13 +1762,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1785,13 +1776,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
@@ -1799,13 +1790,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1813,13 +1804,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1827,13 +1818,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1841,13 +1832,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1855,27 +1846,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D60" s="4">
         <v>1166</v>
@@ -1883,13 +1874,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1897,13 +1888,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D62" s="4">
         <v>820</v>
@@ -1911,13 +1902,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D63" s="4">
         <v>819</v>
@@ -1925,13 +1916,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D64" s="4">
         <v>553</v>
@@ -1939,13 +1930,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D65" s="4">
         <v>395</v>
@@ -1953,13 +1944,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D66" s="4">
         <v>86</v>
@@ -1967,13 +1958,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D67" s="4">
         <v>87</v>
@@ -1981,27 +1972,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D69" s="4">
         <v>55</v>
@@ -2009,13 +2000,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D70" s="4">
         <v>54</v>
@@ -2023,13 +2014,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D71" s="5">
         <v>994</v>
@@ -2037,13 +2028,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D72" s="5">
         <v>695</v>
@@ -2051,27 +2042,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2079,13 +2070,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2093,13 +2084,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2107,13 +2098,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D77" s="4">
         <v>884</v>
@@ -2121,13 +2112,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D78" s="4">
         <v>53</v>
@@ -2135,13 +2126,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D79" s="4">
         <v>107</v>
@@ -2149,13 +2140,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D80" s="4">
         <v>449</v>
@@ -2163,13 +2154,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D81" s="4">
         <v>704</v>
@@ -2177,13 +2168,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D82" s="4">
         <v>170</v>
@@ -2191,13 +2182,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D83" s="5">
         <v>163</v>
@@ -2205,13 +2196,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D84" s="5">
         <v>799</v>
@@ -2219,13 +2210,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D85" s="5">
         <v>160</v>
@@ -2233,13 +2224,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D86" s="5">
         <v>569</v>
@@ -2247,13 +2238,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D87" s="5">
         <v>762</v>
@@ -2261,13 +2252,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D88" s="4">
         <v>211</v>
@@ -2275,13 +2266,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2289,13 +2280,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2303,13 +2294,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
@@ -2317,13 +2308,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D92" s="4">
         <v>15</v>
@@ -2331,13 +2322,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2350,18 +2341,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D59 A61:D93">
+  <conditionalFormatting sqref="A2:D47 A50:D93 B48:D49">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:D60">
+  <conditionalFormatting sqref="A48:A49">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
+      <formula>LEN(TRIM(A48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F59408-BD94-4529-8115-ED142CEEE818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8722187B-8213-4A93-912A-F79B7CE81AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -248,24 +242,15 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -452,9 +437,6 @@
     <t>S020008</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -570,6 +552,24 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,52 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1020,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1048,13 +1093,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="4">
         <v>105</v>
@@ -1062,13 +1107,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="4">
         <v>103</v>
@@ -1076,13 +1121,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1090,13 +1135,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="5">
         <v>809</v>
@@ -1104,13 +1149,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>1045</v>
@@ -1118,13 +1163,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="4">
         <v>103</v>
@@ -1132,13 +1177,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4">
         <v>33</v>
@@ -1146,13 +1191,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="4">
         <v>31</v>
@@ -1160,13 +1205,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
@@ -1174,13 +1219,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1188,13 +1233,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1202,13 +1247,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -1216,13 +1261,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1230,13 +1275,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>4</v>
@@ -1244,13 +1289,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1258,13 +1303,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1272,13 +1317,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D18" s="4">
         <v>52</v>
@@ -1286,13 +1331,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>108</v>
@@ -1300,13 +1345,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D20" s="4">
         <v>107</v>
@@ -1314,13 +1359,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D21" s="4">
         <v>103</v>
@@ -1328,13 +1373,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D22" s="4">
         <v>1176</v>
@@ -1342,13 +1387,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D23" s="4">
         <v>1177</v>
@@ -1356,13 +1401,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D24" s="4">
         <v>1178</v>
@@ -1370,13 +1415,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D25" s="4">
         <v>1179</v>
@@ -1384,13 +1429,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1398,27 +1443,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1426,13 +1471,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="4">
         <v>1159</v>
@@ -1440,13 +1485,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1454,13 +1499,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D31" s="5">
         <v>899</v>
@@ -1468,13 +1513,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5">
         <v>896</v>
@@ -1482,13 +1527,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5">
         <v>900</v>
@@ -1496,13 +1541,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="5">
         <v>898</v>
@@ -1510,13 +1555,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1524,13 +1569,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1538,13 +1583,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D37" s="4">
         <v>166</v>
@@ -1552,13 +1597,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="4">
         <v>167</v>
@@ -1566,41 +1611,41 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="4">
         <v>80</v>
@@ -1608,13 +1653,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="4">
         <v>80</v>
@@ -1622,13 +1667,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" s="4">
         <v>835</v>
@@ -1636,13 +1681,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1650,13 +1695,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -1664,13 +1709,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D46" s="4">
         <v>40</v>
@@ -1678,13 +1723,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="4">
         <v>103</v>
@@ -1692,13 +1737,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D48" s="4">
         <v>103</v>
@@ -1706,13 +1751,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" s="4">
         <v>910</v>
@@ -1720,13 +1765,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1734,13 +1779,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D51" s="4">
         <v>745</v>
@@ -1748,13 +1793,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1762,13 +1807,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1776,13 +1821,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
@@ -1790,13 +1835,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1804,13 +1849,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1818,13 +1863,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1832,13 +1877,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1846,27 +1891,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D60" s="4">
         <v>1166</v>
@@ -1874,27 +1919,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D62" s="4">
         <v>820</v>
@@ -1902,13 +1947,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D63" s="4">
         <v>819</v>
@@ -1916,13 +1961,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>553</v>
@@ -1930,13 +1975,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D65" s="4">
         <v>395</v>
@@ -1944,13 +1989,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D66" s="4">
         <v>86</v>
@@ -1958,13 +2003,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D67" s="4">
         <v>87</v>
@@ -1972,27 +2017,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D69" s="4">
         <v>55</v>
@@ -2000,13 +2045,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D70" s="4">
         <v>54</v>
@@ -2014,13 +2059,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D71" s="5">
         <v>994</v>
@@ -2028,13 +2073,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D72" s="5">
         <v>695</v>
@@ -2042,27 +2087,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2070,13 +2115,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2084,13 +2129,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2098,13 +2143,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D77" s="4">
         <v>884</v>
@@ -2112,13 +2157,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D78" s="4">
         <v>53</v>
@@ -2126,13 +2171,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D79" s="4">
         <v>107</v>
@@ -2140,13 +2185,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D80" s="4">
         <v>449</v>
@@ -2154,13 +2199,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D81" s="4">
         <v>704</v>
@@ -2168,13 +2213,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D82" s="4">
         <v>170</v>
@@ -2182,13 +2227,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D83" s="5">
         <v>163</v>
@@ -2196,13 +2241,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D84" s="5">
         <v>799</v>
@@ -2210,13 +2255,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D85" s="5">
         <v>160</v>
@@ -2224,13 +2269,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D86" s="5">
         <v>569</v>
@@ -2238,13 +2283,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D87" s="5">
         <v>762</v>
@@ -2252,13 +2297,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D88" s="4">
         <v>211</v>
@@ -2266,13 +2311,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2280,13 +2325,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2294,13 +2339,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
@@ -2308,13 +2353,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D92" s="4">
         <v>15</v>
@@ -2322,13 +2367,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2341,18 +2386,43 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="7" priority="36">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D47 A50:D93 B48:D49">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+  <conditionalFormatting sqref="A3:D39 A62:D93 A56:D60 A54:D54 A41:D51">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A49">
+  <conditionalFormatting sqref="A61:D61">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:D55">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(B55))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A55))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:D53">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A52))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:D40">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A48))&gt;0</formula>
+      <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8722187B-8213-4A93-912A-F79B7CE81AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79804D8E-2472-43A1-916C-73620721FF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="175">
   <si>
     <t>Complemento</t>
   </si>
@@ -500,24 +500,6 @@
     <t>S010046</t>
   </si>
   <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
-    <t>S010076</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -570,6 +552,18 @@
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -677,52 +671,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1065,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1042,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>135</v>
@@ -1373,7 +1322,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>135</v>
@@ -1387,7 +1336,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>135</v>
@@ -1401,7 +1350,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>135</v>
@@ -1415,7 +1364,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>135</v>
@@ -1443,7 +1392,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>135</v>
@@ -1452,7 +1401,7 @@
         <v>119</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1471,7 +1420,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>135</v>
@@ -1569,13 +1518,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1625,7 +1574,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>135</v>
@@ -1681,55 +1630,55 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="4">
+        <v>57</v>
+      </c>
+      <c r="D44" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D45" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D46" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" s="4">
         <v>103</v>
@@ -1737,7 +1686,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>135</v>
@@ -1746,54 +1695,54 @@
         <v>62</v>
       </c>
       <c r="D48" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D49" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D51" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>135</v>
@@ -1802,77 +1751,77 @@
         <v>67</v>
       </c>
       <c r="D52" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D53" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,7 +1854,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>135</v>
@@ -1919,7 +1868,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>135</v>
@@ -2386,43 +2335,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="36">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D39 A62:D93 A56:D60 A54:D54 A41:D51">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
+  <conditionalFormatting sqref="A2:D54 A58:D93">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:D61">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:D55">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(B55))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A55:D57">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A55))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:D53">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A52))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:D40">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A40))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79804D8E-2472-43A1-916C-73620721FF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A796B80-5746-4F3B-B387-092DC57CB503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="176">
   <si>
     <t>Complemento</t>
   </si>
@@ -242,9 +242,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -542,12 +539,6 @@
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -564,6 +555,18 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080024</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D57"/>
+      <selection activeCell="A51" sqref="A51:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1042,10 +1045,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1059,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1070,13 +1073,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1087,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1101,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1115,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1129,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1143,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1157,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1171,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -1182,13 +1185,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1199,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -1213,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -1224,10 +1227,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -1241,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1255,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1269,7 +1272,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1283,7 +1286,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1297,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1311,7 +1314,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>33</v>
@@ -1322,13 +1325,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="4">
         <v>1176</v>
@@ -1336,13 +1339,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="4">
         <v>1177</v>
@@ -1350,13 +1353,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="4">
         <v>1178</v>
@@ -1364,13 +1367,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="4">
         <v>1179</v>
@@ -1381,7 +1384,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>35</v>
@@ -1392,16 +1395,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1409,7 +1412,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>37</v>
@@ -1420,16 +1423,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,7 +1440,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
@@ -1451,7 +1454,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>42</v>
@@ -1465,7 +1468,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>42</v>
@@ -1479,7 +1482,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>42</v>
@@ -1493,7 +1496,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>42</v>
@@ -1504,13 +1507,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1518,13 +1521,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1535,7 +1538,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>47</v>
@@ -1549,7 +1552,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>47</v>
@@ -1560,24 +1563,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1591,7 +1594,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>51</v>
@@ -1605,7 +1608,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
@@ -1619,7 +1622,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>55</v>
@@ -1633,7 +1636,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>57</v>
@@ -1647,7 +1650,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>59</v>
@@ -1661,7 +1664,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>61</v>
@@ -1672,10 +1675,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>62</v>
@@ -1686,10 +1689,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
@@ -1703,7 +1706,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>64</v>
@@ -1717,7 +1720,7 @@
         <v>65</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>66</v>
@@ -1728,13 +1731,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1742,335 +1745,335 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="D52" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="D53" s="4">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="D55" s="4">
-        <v>1172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="D58" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>146</v>
+        <v>71</v>
+      </c>
+      <c r="D59" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1166</v>
+        <v>144</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D61" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D62" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D64" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D65" s="4">
-        <v>395</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D66" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>148</v>
+        <v>81</v>
+      </c>
+      <c r="D68" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="4">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="5">
-        <v>994</v>
+        <v>84</v>
+      </c>
+      <c r="D71" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D72" s="5">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>133</v>
+        <v>87</v>
+      </c>
+      <c r="D73" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="4">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2078,13 +2081,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2092,195 +2095,195 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="D77" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="D78" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D79" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D80" s="4">
-        <v>449</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D81" s="4">
-        <v>704</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D82" s="4">
-        <v>170</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="5">
-        <v>163</v>
+        <v>101</v>
+      </c>
+      <c r="D83" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D84" s="5">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D85" s="5">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D87" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="4">
-        <v>211</v>
+        <v>105</v>
+      </c>
+      <c r="D88" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D89" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2288,65 +2291,79 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D91" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D92" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="D94" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D93" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
-      <sortCondition ref="A1:A93"/>
+  <autoFilter ref="A1:D94" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
+      <sortCondition ref="A1:A94"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D54 A58:D93">
+  <conditionalFormatting sqref="A2:D50 A54:D94">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:D57">
+  <conditionalFormatting sqref="A51:D53">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A55))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A796B80-5746-4F3B-B387-092DC57CB503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2FF86-5056-40FA-BAB8-244712F29E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="174">
   <si>
     <t>Complemento</t>
   </si>
@@ -426,12 +426,6 @@
   </si>
   <si>
     <t>S020007</t>
-  </si>
-  <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
   </si>
   <si>
     <t>S010038</t>
@@ -674,16 +668,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1015,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1045,10 +1030,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1062,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1076,7 +1061,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>113</v>
@@ -1090,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1104,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1118,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1132,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1146,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1160,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1174,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -1188,7 +1173,7 @@
         <v>114</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>115</v>
@@ -1202,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -1216,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -1230,7 +1215,7 @@
         <v>116</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -1244,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1258,7 +1243,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1272,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1286,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1300,7 +1285,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1314,7 +1299,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>33</v>
@@ -1325,10 +1310,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>117</v>
@@ -1339,10 +1324,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>117</v>
@@ -1353,10 +1338,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>117</v>
@@ -1367,10 +1352,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>117</v>
@@ -1384,7 +1369,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>35</v>
@@ -1395,16 +1380,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1412,7 +1397,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>37</v>
@@ -1423,10 +1408,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -1440,7 +1425,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
@@ -1454,7 +1439,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>42</v>
@@ -1468,7 +1453,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>42</v>
@@ -1482,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>42</v>
@@ -1496,7 +1481,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>42</v>
@@ -1510,7 +1495,7 @@
         <v>119</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>120</v>
@@ -1521,13 +1506,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1538,7 +1523,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>47</v>
@@ -1552,7 +1537,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>47</v>
@@ -1563,24 +1548,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1594,7 +1579,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>51</v>
@@ -1608,7 +1593,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
@@ -1622,7 +1607,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>55</v>
@@ -1636,7 +1621,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>57</v>
@@ -1650,7 +1635,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>59</v>
@@ -1664,7 +1649,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>61</v>
@@ -1675,10 +1660,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>62</v>
@@ -1689,10 +1674,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
@@ -1706,7 +1691,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>64</v>
@@ -1720,7 +1705,7 @@
         <v>65</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>66</v>
@@ -1731,13 +1716,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1745,13 +1730,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1759,13 +1744,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1776,7 +1761,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>68</v>
@@ -1787,10 +1772,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>69</v>
@@ -1801,13 +1786,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="4">
         <v>1172</v>
@@ -1815,13 +1800,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="4">
         <v>1173</v>
@@ -1829,13 +1814,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="4">
         <v>1174</v>
@@ -1846,7 +1831,7 @@
         <v>70</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>71</v>
@@ -1857,24 +1842,24 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>72</v>
@@ -1885,13 +1870,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D62" s="4">
         <v>1167</v>
@@ -1902,7 +1887,7 @@
         <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>74</v>
@@ -1916,7 +1901,7 @@
         <v>75</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>74</v>
@@ -1930,7 +1915,7 @@
         <v>76</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>77</v>
@@ -1944,7 +1929,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>79</v>
@@ -1958,7 +1943,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>81</v>
@@ -1972,7 +1957,7 @@
         <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>81</v>
@@ -1983,16 +1968,16 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,7 +1985,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>84</v>
@@ -2014,7 +1999,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>84</v>
@@ -2028,7 +2013,7 @@
         <v>88</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>87</v>
@@ -2042,7 +2027,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>87</v>
@@ -2053,16 +2038,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,7 +2055,7 @@
         <v>89</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>90</v>
@@ -2084,7 +2069,7 @@
         <v>121</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>122</v>
@@ -2098,7 +2083,7 @@
         <v>91</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>92</v>
@@ -2109,13 +2094,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D78" s="4">
         <v>884</v>
@@ -2126,7 +2111,7 @@
         <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>94</v>
@@ -2140,7 +2125,7 @@
         <v>95</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>96</v>
@@ -2154,7 +2139,7 @@
         <v>97</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>98</v>
@@ -2168,7 +2153,7 @@
         <v>99</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>98</v>
@@ -2182,7 +2167,7 @@
         <v>100</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>101</v>
@@ -2196,7 +2181,7 @@
         <v>102</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>101</v>
@@ -2210,7 +2195,7 @@
         <v>103</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>101</v>
@@ -2224,7 +2209,7 @@
         <v>104</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>105</v>
@@ -2238,7 +2223,7 @@
         <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>105</v>
@@ -2252,7 +2237,7 @@
         <v>107</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>105</v>
@@ -2266,7 +2251,7 @@
         <v>108</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>109</v>
@@ -2280,7 +2265,7 @@
         <v>127</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>128</v>
@@ -2291,79 +2276,60 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D91" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D92" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D93" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
-      <sortCondition ref="A1:A94"/>
+  <autoFilter ref="A1:D93" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
+      <sortCondition ref="A1:A93"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A54:D94">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D93">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D53">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2FF86-5056-40FA-BAB8-244712F29E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD238F1-80CF-497D-B466-38A25965F6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -561,6 +555,12 @@
   </si>
   <si>
     <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1075,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1103,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1117,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1131,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1159,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -1229,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1243,7 +1243,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1257,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1271,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1285,7 +1285,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1299,7 +1299,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>33</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="4">
         <v>1176</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="4">
         <v>1177</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4">
         <v>1178</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="4">
         <v>1179</v>
@@ -1369,7 +1369,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>35</v>
@@ -1380,16 +1380,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>37</v>
@@ -1408,10 +1408,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -1425,7 +1425,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
@@ -1439,7 +1439,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>42</v>
@@ -1453,7 +1453,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>42</v>
@@ -1467,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>42</v>
@@ -1481,7 +1481,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>42</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1523,7 +1523,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>47</v>
@@ -1537,7 +1537,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>47</v>
@@ -1548,24 +1548,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1579,7 +1579,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>51</v>
@@ -1593,7 +1593,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
@@ -1607,7 +1607,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>55</v>
@@ -1621,7 +1621,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>57</v>
@@ -1635,7 +1635,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>59</v>
@@ -1649,7 +1649,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>61</v>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>62</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
@@ -1691,7 +1691,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>64</v>
@@ -1705,7 +1705,7 @@
         <v>65</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>66</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1761,7 +1761,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>68</v>
@@ -1772,27 +1772,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="4">
         <v>1172</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="4">
         <v>1173</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="4">
         <v>1174</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D59" s="4">
         <v>211</v>
@@ -1842,41 +1842,41 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="4">
         <v>1167</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D63" s="4">
         <v>820</v>
@@ -1898,13 +1898,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D64" s="4">
         <v>819</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D65" s="4">
         <v>553</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D66" s="4">
         <v>395</v>
@@ -1940,13 +1940,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D67" s="4">
         <v>86</v>
@@ -1954,13 +1954,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" s="4">
         <v>87</v>
@@ -1968,27 +1968,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D70" s="4">
         <v>55</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="4">
         <v>54</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="5">
         <v>994</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D73" s="5">
         <v>695</v>
@@ -2038,27 +2038,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D78" s="4">
         <v>884</v>
@@ -2108,13 +2108,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D79" s="4">
         <v>53</v>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D80" s="4">
         <v>107</v>
@@ -2136,13 +2136,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D81" s="4">
         <v>449</v>
@@ -2150,13 +2150,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D82" s="4">
         <v>704</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D83" s="4">
         <v>170</v>
@@ -2178,13 +2178,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D84" s="5">
         <v>163</v>
@@ -2192,13 +2192,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D85" s="5">
         <v>799</v>
@@ -2206,13 +2206,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D86" s="5">
         <v>160</v>
@@ -2220,13 +2220,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" s="5">
         <v>569</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D88" s="5">
         <v>762</v>
@@ -2248,13 +2248,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D89" s="4">
         <v>211</v>
@@ -2262,13 +2262,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2276,13 +2276,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
@@ -2290,13 +2290,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D92" s="4">
         <v>15</v>
@@ -2304,13 +2304,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2323,7 +2323,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="1" priority="40">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD238F1-80CF-497D-B466-38A25965F6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E987A29-8A70-42CE-8FDC-097BA609ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="172">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -1000,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1030,10 +1024,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1044,30 +1038,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,13 +1069,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>809</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,55 +1083,55 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
-        <v>1045</v>
+      <c r="D6" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,24 +1139,24 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1170,16 +1164,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,41 +1181,41 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,7 +1223,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1243,13 +1237,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1257,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="4">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,13 +1265,13 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,139 +1279,139 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D21" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1179</v>
+        <v>33</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>150</v>
+        <v>35</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,13 +1419,13 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="4">
-        <v>1</v>
+      <c r="D30" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,83 +1433,83 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D33" s="5">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D34" s="5">
-        <v>898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="D35" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="D36" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,55 +1517,55 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="4">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>129</v>
+        <v>47</v>
+      </c>
+      <c r="D39" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,7 +1573,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>51</v>
@@ -1593,13 +1587,13 @@
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="4">
-        <v>80</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,13 +1601,13 @@
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="4">
-        <v>835</v>
+      <c r="D43" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,13 +1615,13 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="5">
-        <v>1</v>
+      <c r="D44" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,24 +1629,24 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D46" s="4">
         <v>103</v>
@@ -1660,30 +1654,30 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,27 +1685,27 @@
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="D50" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,10 +1713,10 @@
         <v>168</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1730,58 +1724,58 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D52" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="D53" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="D54" s="4">
-        <v>2</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D55" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,80 +1783,80 @@
         <v>164</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="D58" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="4">
-        <v>211</v>
+        <v>139</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>142</v>
+        <v>69</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D61" s="4">
         <v>1167</v>
@@ -1870,16 +1864,16 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="D62" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,27 +1881,27 @@
         <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D63" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D64" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,13 +1909,13 @@
         <v>75</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D65" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,13 +1923,13 @@
         <v>77</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,41 +1937,41 @@
         <v>79</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D67" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="4">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>144</v>
+        <v>81</v>
+      </c>
+      <c r="D69" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,80 +1979,80 @@
         <v>82</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" s="4">
-        <v>54</v>
+      <c r="D71" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D72" s="5">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" s="5">
-        <v>695</v>
+        <v>144</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2066,13 +2060,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2080,30 +2074,30 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="D77" s="4">
-        <v>1</v>
+        <v>884</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D78" s="4">
-        <v>884</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,13 +2105,13 @@
         <v>92</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D79" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2125,7 @@
         <v>95</v>
       </c>
       <c r="D80" s="4">
-        <v>107</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,27 +2133,27 @@
         <v>96</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D81" s="4">
-        <v>449</v>
+        <v>704</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D82" s="4">
-        <v>704</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,41 +2161,41 @@
         <v>99</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D83" s="4">
-        <v>170</v>
+        <v>98</v>
+      </c>
+      <c r="D83" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D84" s="5">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D85" s="5">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,69 +2203,69 @@
         <v>103</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D86" s="5">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D87" s="5">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D88" s="5">
-        <v>762</v>
+      <c r="D88" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D89" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D90" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,47 +2273,33 @@
         <v>122</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D91" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D92" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D93" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
-      <sortCondition ref="A1:A93"/>
+  <autoFilter ref="A1:D92" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D92">
+      <sortCondition ref="A1:A92"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2327,7 +2307,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D93">
+  <conditionalFormatting sqref="A2:D92">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E987A29-8A70-42CE-8FDC-097BA609ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A46F21-0CE2-4378-BB15-692FDBC388ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -515,9 +515,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -996,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1033,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>129</v>
@@ -1542,7 +1551,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>129</v>
@@ -1654,7 +1663,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>129</v>
@@ -1663,7 +1672,7 @@
         <v>60</v>
       </c>
       <c r="D47" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,13 +1705,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D50" s="4">
         <v>33</v>
@@ -1710,13 +1719,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1724,13 +1733,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52" s="4">
         <v>32</v>
@@ -1752,13 +1761,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="4">
         <v>1181</v>
@@ -1766,13 +1775,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D55" s="4">
         <v>1172</v>
@@ -1780,13 +1789,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="4">
         <v>1173</v>
@@ -1794,13 +1803,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="4">
         <v>1174</v>
@@ -1850,7 +1859,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>129</v>
@@ -2303,13 +2312,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="40">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D92">
+  <conditionalFormatting sqref="A2:D46 A48:D92">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:D47">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A46F21-0CE2-4378-BB15-692FDBC388ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B83F336-0845-4DDD-BFE7-CF2AB67A4293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -662,16 +662,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1005,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2125,7 @@
         <v>95</v>
       </c>
       <c r="D80" s="4">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2312,18 +2303,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D46 A48:D92">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D92">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:D47">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B83F336-0845-4DDD-BFE7-CF2AB67A4293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755D09D2-CE2C-4775-85EF-BDDC48C01210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -323,9 +323,6 @@
     <t>S010049</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/ 100UN - 100LT</t>
-  </si>
-  <si>
     <t>S010068</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/ 100UN - 100L</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1083,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1097,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1125,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1139,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1150,13 +1150,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1181,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1209,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1223,7 +1223,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1237,7 +1237,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1251,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1265,7 +1265,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1304,13 +1304,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1349,7 +1349,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -1360,16 +1360,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>36</v>
@@ -1405,7 +1405,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -1419,7 +1419,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
@@ -1433,7 +1433,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>40</v>
@@ -1447,7 +1447,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
@@ -1461,7 +1461,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>40</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1503,7 +1503,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>45</v>
@@ -1517,7 +1517,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -1528,24 +1528,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
@@ -1559,7 +1559,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1573,7 +1573,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>51</v>
@@ -1587,7 +1587,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
@@ -1601,7 +1601,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>55</v>
@@ -1615,7 +1615,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>57</v>
@@ -1629,7 +1629,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>59</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>60</v>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>60</v>
@@ -1671,7 +1671,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
@@ -1685,7 +1685,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>64</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D50" s="4">
         <v>33</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="4">
         <v>32</v>
@@ -1741,7 +1741,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>66</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D54" s="4">
         <v>1181</v>
@@ -1766,13 +1766,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D55" s="4">
         <v>1172</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="4">
         <v>1173</v>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="4">
         <v>1174</v>
@@ -1811,7 +1811,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>68</v>
@@ -1822,24 +1822,24 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>69</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D61" s="4">
         <v>1167</v>
@@ -1867,7 +1867,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>71</v>
@@ -1881,7 +1881,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>71</v>
@@ -1895,7 +1895,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>74</v>
@@ -1909,7 +1909,7 @@
         <v>75</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>76</v>
@@ -1923,7 +1923,7 @@
         <v>77</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>78</v>
@@ -1937,7 +1937,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>78</v>
@@ -1948,16 +1948,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>80</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>81</v>
@@ -1979,7 +1979,7 @@
         <v>82</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>81</v>
@@ -1993,7 +1993,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>84</v>
@@ -2007,7 +2007,7 @@
         <v>83</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>84</v>
@@ -2018,16 +2018,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
         <v>86</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>87</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>88</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>89</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D77" s="4">
         <v>884</v>
@@ -2091,7 +2091,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>91</v>
@@ -2105,7 +2105,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>93</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D80" s="4">
         <v>438</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" s="4">
         <v>704</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D82" s="4">
         <v>170</v>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" s="5">
         <v>163</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="5">
         <v>799</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D85" s="5">
         <v>160</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D86" s="5">
         <v>569</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D87" s="5">
         <v>762</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D88" s="4">
         <v>211</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D91" s="4">
         <v>15</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755D09D2-CE2C-4775-85EF-BDDC48C01210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803211ED-C0D4-49F2-8106-C348CD5C7F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -326,9 +326,6 @@
     <t>S010068</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/ 100UN - 40LT</t>
-  </si>
-  <si>
     <t>SACO PLASTICO - 25CMX35CM - 25CMX35CM</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>SACO P/ LIXO C/ 100UN - 100L</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/ 100UN - 40L</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1083,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1097,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1125,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1139,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1150,13 +1150,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1181,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1209,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1223,7 +1223,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1237,7 +1237,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1251,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1265,7 +1265,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1304,13 +1304,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1318,13 +1318,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1349,7 +1349,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -1360,16 +1360,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>36</v>
@@ -1405,7 +1405,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -1419,7 +1419,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
@@ -1433,7 +1433,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>40</v>
@@ -1447,7 +1447,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
@@ -1461,7 +1461,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>40</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1503,7 +1503,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>45</v>
@@ -1517,7 +1517,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -1528,24 +1528,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
@@ -1559,7 +1559,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1573,7 +1573,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>51</v>
@@ -1587,7 +1587,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
@@ -1601,7 +1601,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>55</v>
@@ -1615,7 +1615,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>57</v>
@@ -1629,7 +1629,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>59</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>60</v>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>60</v>
@@ -1671,7 +1671,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
@@ -1685,7 +1685,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>64</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D50" s="4">
         <v>33</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="4">
         <v>32</v>
@@ -1741,7 +1741,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>66</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D54" s="4">
         <v>1181</v>
@@ -1766,13 +1766,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D55" s="4">
         <v>1172</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="4">
         <v>1173</v>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="4">
         <v>1174</v>
@@ -1811,7 +1811,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>68</v>
@@ -1822,24 +1822,24 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>69</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" s="4">
         <v>1167</v>
@@ -1867,7 +1867,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>71</v>
@@ -1881,7 +1881,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>71</v>
@@ -1895,7 +1895,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>74</v>
@@ -1909,7 +1909,7 @@
         <v>75</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>76</v>
@@ -1923,7 +1923,7 @@
         <v>77</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>78</v>
@@ -1937,7 +1937,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>78</v>
@@ -1948,16 +1948,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>80</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>81</v>
@@ -1979,7 +1979,7 @@
         <v>82</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>81</v>
@@ -1993,7 +1993,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>84</v>
@@ -2007,7 +2007,7 @@
         <v>83</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>84</v>
@@ -2018,16 +2018,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
         <v>86</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>87</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>88</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>89</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D77" s="4">
         <v>884</v>
@@ -2091,7 +2091,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>91</v>
@@ -2105,7 +2105,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>93</v>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>94</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>94</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D82" s="4">
         <v>170</v>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" s="5">
         <v>163</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D84" s="5">
         <v>799</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D85" s="5">
         <v>160</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86" s="5">
         <v>569</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" s="5">
         <v>762</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D88" s="4">
         <v>211</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D91" s="4">
         <v>15</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803211ED-C0D4-49F2-8106-C348CD5C7F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326BD88-49DA-4D35-B8BD-2221007EC071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
   <si>
     <t>Complemento</t>
   </si>
@@ -278,9 +278,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>PILHA - AA (PAR)</t>
   </si>
   <si>
@@ -456,12 +453,6 @@
   </si>
   <si>
     <t>591</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PRANCHETA A4 - UNICA</t>
@@ -994,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1024,10 +1015,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1038,13 +1029,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -1055,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1069,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1083,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1097,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1111,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1125,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1139,7 +1130,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1150,13 +1141,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1167,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1181,7 +1172,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1192,10 +1183,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1209,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1223,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1237,7 +1228,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1251,7 +1242,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1265,7 +1256,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1279,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1290,13 +1281,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1304,13 +1295,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1318,13 +1309,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1332,13 +1323,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1349,7 +1340,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -1360,16 +1351,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,7 +1368,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -1388,10 +1379,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>36</v>
@@ -1405,7 +1396,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -1419,7 +1410,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
@@ -1433,7 +1424,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>40</v>
@@ -1447,7 +1438,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
@@ -1461,7 +1452,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>40</v>
@@ -1472,13 +1463,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1486,13 +1477,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1503,7 +1494,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>45</v>
@@ -1517,7 +1508,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -1528,24 +1519,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
@@ -1559,7 +1550,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1573,7 +1564,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>51</v>
@@ -1587,7 +1578,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
@@ -1601,7 +1592,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>55</v>
@@ -1615,7 +1606,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>57</v>
@@ -1629,7 +1620,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>59</v>
@@ -1640,10 +1631,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>60</v>
@@ -1654,10 +1645,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>60</v>
@@ -1671,7 +1662,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
@@ -1685,7 +1676,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>64</v>
@@ -1696,13 +1687,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D50" s="4">
         <v>33</v>
@@ -1710,13 +1701,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1724,13 +1715,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="4">
         <v>32</v>
@@ -1741,7 +1732,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>66</v>
@@ -1752,13 +1743,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D54" s="4">
         <v>1181</v>
@@ -1766,13 +1757,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D55" s="4">
         <v>1172</v>
@@ -1780,13 +1771,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D56" s="4">
         <v>1173</v>
@@ -1794,13 +1785,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D57" s="4">
         <v>1174</v>
@@ -1811,7 +1802,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>68</v>
@@ -1822,24 +1813,24 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>69</v>
@@ -1850,13 +1841,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" s="4">
         <v>1167</v>
@@ -1867,7 +1858,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>71</v>
@@ -1881,7 +1872,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>71</v>
@@ -1895,7 +1886,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>74</v>
@@ -1909,7 +1900,7 @@
         <v>75</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>76</v>
@@ -1923,7 +1914,7 @@
         <v>77</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>78</v>
@@ -1937,41 +1928,41 @@
         <v>79</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D67" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>140</v>
+        <v>80</v>
+      </c>
+      <c r="D68" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="4">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="D69" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,66 +1970,66 @@
         <v>82</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="4">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="D70" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="5">
-        <v>994</v>
+        <v>139</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="5">
-        <v>695</v>
+        <v>86</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2046,260 +2037,232 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D75" s="4">
-        <v>1</v>
+        <v>884</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="D77" s="4">
-        <v>884</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D78" s="4">
-        <v>53</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D79" s="4">
-        <v>107</v>
+        <v>704</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="4">
         <v>170</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" s="4">
-        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="4">
-        <v>704</v>
+        <v>95</v>
+      </c>
+      <c r="D81" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="4">
-        <v>170</v>
+      <c r="D82" s="5">
+        <v>799</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D83" s="5">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D84" s="5">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D85" s="5">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86" s="5">
-        <v>569</v>
+        <v>103</v>
+      </c>
+      <c r="D86" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="5">
-        <v>762</v>
+        <v>122</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D88" s="4">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D89" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D90" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D92" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D92">
-      <sortCondition ref="A1:A92"/>
+  <autoFilter ref="A1:D90" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
+      <sortCondition ref="A1:A90"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2307,7 +2270,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D92">
+  <conditionalFormatting sqref="A2:D90">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326BD88-49DA-4D35-B8BD-2221007EC071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16864BE-618E-4865-98F6-7E35B54B14A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
   <si>
     <t>Complemento</t>
   </si>
@@ -260,9 +260,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -546,6 +540,9 @@
   </si>
   <si>
     <t>SACO P/ LIXO C/ 100UN - 40L</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -653,7 +650,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -988,7 +994,7 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+      <selection activeCell="A64" sqref="A64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1015,10 +1021,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1029,13 +1035,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -1046,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1060,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1074,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1088,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1102,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1116,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1130,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1141,13 +1147,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1158,7 +1164,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1172,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1183,10 +1189,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1200,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1214,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1228,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1242,7 +1248,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1256,7 +1262,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1270,7 +1276,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1281,13 +1287,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1295,13 +1301,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1309,13 +1315,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1323,13 +1329,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1340,7 +1346,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -1351,16 +1357,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -1379,10 +1385,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>36</v>
@@ -1396,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -1410,7 +1416,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
@@ -1424,7 +1430,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>40</v>
@@ -1438,7 +1444,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
@@ -1452,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>40</v>
@@ -1463,13 +1469,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1477,13 +1483,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1494,7 +1500,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>45</v>
@@ -1508,7 +1514,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -1519,24 +1525,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
@@ -1550,7 +1556,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1564,7 +1570,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>51</v>
@@ -1578,7 +1584,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
@@ -1592,7 +1598,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>55</v>
@@ -1606,7 +1612,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>57</v>
@@ -1620,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>59</v>
@@ -1631,10 +1637,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>60</v>
@@ -1645,10 +1651,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>60</v>
@@ -1662,7 +1668,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>62</v>
@@ -1676,7 +1682,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>64</v>
@@ -1687,13 +1693,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D50" s="4">
         <v>33</v>
@@ -1701,13 +1707,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1715,13 +1721,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="4">
         <v>32</v>
@@ -1732,7 +1738,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>66</v>
@@ -1743,13 +1749,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="4">
         <v>1181</v>
@@ -1757,13 +1763,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D55" s="4">
         <v>1172</v>
@@ -1771,13 +1777,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D56" s="4">
         <v>1173</v>
@@ -1785,13 +1791,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D57" s="4">
         <v>1174</v>
@@ -1802,7 +1808,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>68</v>
@@ -1813,24 +1819,24 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>69</v>
@@ -1841,13 +1847,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D61" s="4">
         <v>1167</v>
@@ -1858,7 +1864,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>71</v>
@@ -1872,7 +1878,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>71</v>
@@ -1883,27 +1889,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D64" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D65" s="4">
         <v>395</v>
@@ -1911,13 +1917,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D66" s="4">
         <v>86</v>
@@ -1925,13 +1931,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D67" s="4">
         <v>55</v>
@@ -1939,13 +1945,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="4">
         <v>54</v>
@@ -1953,13 +1959,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="5">
         <v>994</v>
@@ -1967,13 +1973,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D70" s="5">
         <v>695</v>
@@ -1981,27 +1987,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2009,13 +2015,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2023,13 +2029,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2037,13 +2043,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D75" s="4">
         <v>884</v>
@@ -2051,13 +2057,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D76" s="4">
         <v>53</v>
@@ -2065,13 +2071,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D77" s="4">
         <v>107</v>
@@ -2079,13 +2085,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D78" s="4">
         <v>438</v>
@@ -2093,13 +2099,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79" s="4">
         <v>704</v>
@@ -2107,13 +2113,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D80" s="4">
         <v>170</v>
@@ -2121,13 +2127,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" s="5">
         <v>163</v>
@@ -2135,13 +2141,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82" s="5">
         <v>799</v>
@@ -2149,13 +2155,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D83" s="5">
         <v>160</v>
@@ -2163,13 +2169,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D84" s="5">
         <v>569</v>
@@ -2177,13 +2183,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D85" s="5">
         <v>762</v>
@@ -2191,13 +2197,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D86" s="4">
         <v>211</v>
@@ -2205,13 +2211,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2219,13 +2225,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D88" s="4">
         <v>2</v>
@@ -2233,13 +2239,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D89" s="4">
         <v>15</v>
@@ -2247,13 +2253,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2266,13 +2272,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D90">
+  <conditionalFormatting sqref="A2:D63 A65:D90">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D64">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A64))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16864BE-618E-4865-98F6-7E35B54B14A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED81497-7C46-4A1D-839A-9BC37FAE3C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1066,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1108,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1122,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -1178,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1206,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -1220,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -1234,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -1248,7 +1248,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1262,7 +1262,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
@@ -1276,7 +1276,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1346,7 +1346,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>36</v>
@@ -1402,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -1416,7 +1416,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>40</v>
@@ -1430,7 +1430,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>40</v>
@@ -1444,7 +1444,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
@@ -1458,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>40</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1500,7 +1500,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>45</v>
@@ -1514,7 +1514,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -1525,24 +1525,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>47</v>
@@ -1556,7 +1556,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>49</v>
@@ -1567,27 +1567,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D41" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D42" s="4">
         <v>835</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D44" s="4">
         <v>40</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D45" s="4">
         <v>103</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="4">
         <v>103</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="4">
         <v>1166</v>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D49" s="4">
         <v>745</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D50" s="4">
         <v>33</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="4">
         <v>32</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D54" s="4">
         <v>1181</v>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D55" s="4">
         <v>1172</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56" s="4">
         <v>1173</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="4">
         <v>1174</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1819,27 +1819,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="4">
         <v>1167</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D62" s="4">
         <v>820</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="4">
         <v>819</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="4">
         <v>1394</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D65" s="4">
         <v>395</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D66" s="4">
         <v>86</v>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D67" s="4">
         <v>55</v>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="4">
         <v>54</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="5">
         <v>994</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D70" s="5">
         <v>695</v>
@@ -1987,27 +1987,27 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2015,13 +2015,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2029,13 +2029,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D75" s="4">
         <v>884</v>
@@ -2057,13 +2057,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D76" s="4">
         <v>53</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D77" s="4">
         <v>107</v>
@@ -2085,13 +2085,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="4">
         <v>438</v>
@@ -2099,13 +2099,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="4">
         <v>704</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D80" s="4">
         <v>170</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81" s="5">
         <v>163</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82" s="5">
         <v>799</v>
@@ -2155,13 +2155,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D83" s="5">
         <v>160</v>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="5">
         <v>569</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" s="5">
         <v>762</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D86" s="4">
         <v>211</v>
@@ -2211,13 +2211,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D88" s="4">
         <v>2</v>
@@ -2239,13 +2239,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D89" s="4">
         <v>15</v>
@@ -2253,13 +2253,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2272,18 +2272,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D63 A65:D90">
+  <conditionalFormatting sqref="A2:D40 A42:D90">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D64">
+  <conditionalFormatting sqref="A41:D41">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A64))&gt;0</formula>
+      <formula>LEN(TRIM(A41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED81497-7C46-4A1D-839A-9BC37FAE3C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438819B-417F-49D2-8FCD-CCE8D3313D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="168">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,15 +98,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -137,24 +128,15 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -200,9 +182,6 @@
     <t>S150339</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -290,15 +266,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -347,9 +317,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -359,12 +326,6 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
@@ -374,15 +335,9 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -398,18 +353,12 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
     <t>S010038</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>UM.</t>
   </si>
   <si>
@@ -431,9 +380,6 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
@@ -446,9 +392,6 @@
     <t>591</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
@@ -543,6 +486,63 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>RODO - C/ CABO 40CM</t>
   </si>
 </sst>
 </file>
@@ -650,16 +650,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -993,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:D41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1021,10 +1012,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1035,13 +1026,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -1052,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1066,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1080,7 +1071,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1094,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1108,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1122,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1133,41 +1124,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -1175,13 +1166,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -1189,13 +1180,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4">
         <v>4</v>
@@ -1203,41 +1194,41 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4">
         <v>52</v>
@@ -1245,13 +1236,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>108</v>
@@ -1259,13 +1250,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4">
         <v>107</v>
@@ -1273,13 +1264,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4">
         <v>103</v>
@@ -1287,13 +1278,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4">
         <v>1176</v>
@@ -1301,13 +1292,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D22" s="4">
         <v>1177</v>
@@ -1315,13 +1306,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D23" s="4">
         <v>1178</v>
@@ -1329,13 +1320,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D24" s="4">
         <v>1179</v>
@@ -1343,55 +1334,55 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D28" s="4">
         <v>1162</v>
@@ -1399,27 +1390,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D30" s="5">
         <v>899</v>
@@ -1427,13 +1418,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D31" s="5">
         <v>896</v>
@@ -1441,13 +1432,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D32" s="5">
         <v>900</v>
@@ -1455,13 +1446,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D33" s="5">
         <v>898</v>
@@ -1469,27 +1460,27 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D34" s="5">
-        <v>1</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1497,13 +1488,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D36" s="4">
         <v>166</v>
@@ -1511,13 +1502,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D37" s="4">
         <v>167</v>
@@ -1525,27 +1516,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="D38" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4">
         <v>448</v>
@@ -1553,13 +1544,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D40" s="4">
         <v>80</v>
@@ -1567,13 +1558,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D41" s="4">
         <v>1396</v>
@@ -1581,13 +1572,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D42" s="4">
         <v>835</v>
@@ -1595,27 +1586,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D43" s="5">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D44" s="4">
         <v>40</v>
@@ -1623,13 +1614,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D45" s="4">
         <v>103</v>
@@ -1637,13 +1628,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D46" s="4">
         <v>103</v>
@@ -1651,13 +1642,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D47" s="4">
         <v>1166</v>
@@ -1665,27 +1656,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D49" s="4">
         <v>745</v>
@@ -1693,13 +1684,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D50" s="4">
         <v>33</v>
@@ -1707,13 +1698,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
@@ -1721,13 +1712,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D52" s="4">
         <v>32</v>
@@ -1735,13 +1726,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -1749,13 +1740,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D54" s="4">
         <v>1181</v>
@@ -1763,13 +1754,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D55" s="4">
         <v>1172</v>
@@ -1777,13 +1768,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D56" s="4">
         <v>1173</v>
@@ -1791,13 +1782,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D57" s="4">
         <v>1174</v>
@@ -1805,13 +1796,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1819,27 +1810,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1847,13 +1838,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D61" s="4">
         <v>1167</v>
@@ -1861,13 +1852,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D62" s="4">
         <v>820</v>
@@ -1875,13 +1866,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D63" s="4">
         <v>819</v>
@@ -1889,13 +1880,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D64" s="4">
         <v>1394</v>
@@ -1903,13 +1894,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D65" s="4">
         <v>395</v>
@@ -1917,13 +1908,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D66" s="4">
         <v>86</v>
@@ -1931,13 +1922,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D67" s="4">
         <v>55</v>
@@ -1945,13 +1936,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4">
         <v>54</v>
@@ -1959,13 +1950,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D69" s="5">
         <v>994</v>
@@ -1973,13 +1964,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D70" s="5">
         <v>695</v>
@@ -1987,69 +1978,69 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1457</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D74" s="4">
-        <v>1</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D75" s="4">
         <v>884</v>
@@ -2057,13 +2048,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D76" s="4">
         <v>53</v>
@@ -2071,13 +2062,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D77" s="4">
         <v>107</v>
@@ -2085,13 +2076,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D78" s="4">
         <v>438</v>
@@ -2099,13 +2090,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D79" s="4">
         <v>704</v>
@@ -2113,13 +2104,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D80" s="4">
         <v>170</v>
@@ -2127,13 +2118,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D81" s="5">
         <v>163</v>
@@ -2141,13 +2132,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D82" s="5">
         <v>799</v>
@@ -2155,13 +2146,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D83" s="5">
         <v>160</v>
@@ -2169,13 +2160,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D84" s="5">
         <v>569</v>
@@ -2183,13 +2174,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D85" s="5">
         <v>762</v>
@@ -2197,13 +2188,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D86" s="4">
         <v>211</v>
@@ -2211,27 +2202,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D87" s="4">
-        <v>1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D88" s="4">
         <v>2</v>
@@ -2239,13 +2230,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D89" s="4">
         <v>15</v>
@@ -2253,37 +2244,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D90" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D90" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
-      <sortCondition ref="A1:A90"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="1" priority="43">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D40 A42:D90">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D90">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:D41">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438819B-417F-49D2-8FCD-CCE8D3313D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F5BF3-90B4-457F-8B44-2415A3E8C226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="167">
   <si>
     <t>Complemento</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>SACO P/ LIXO C/ 100UN - 100L</t>
@@ -982,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1121,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>107</v>
@@ -1138,13 +1135,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D11" s="4">
         <v>1184</v>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>108</v>
@@ -1203,12 +1200,12 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>108</v>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>107</v>
@@ -1362,7 +1359,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>107</v>
@@ -1390,7 +1387,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>107</v>
@@ -1460,7 +1457,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>107</v>
@@ -1516,7 +1513,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>107</v>
@@ -1558,7 +1555,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>108</v>
@@ -1586,7 +1583,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>107</v>
@@ -1642,49 +1639,49 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D48" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="D49" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>107</v>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>107</v>
@@ -1707,54 +1704,54 @@
         <v>139</v>
       </c>
       <c r="D51" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="D53" s="4">
-        <v>2</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D54" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>107</v>
@@ -1763,12 +1760,12 @@
         <v>135</v>
       </c>
       <c r="D55" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>107</v>
@@ -1777,60 +1774,60 @@
         <v>135</v>
       </c>
       <c r="D56" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="D57" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="4">
-        <v>211</v>
+        <v>115</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>116</v>
+        <v>60</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1838,21 +1835,21 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="D61" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>109</v>
@@ -1861,68 +1858,68 @@
         <v>62</v>
       </c>
       <c r="D62" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D63" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D64" s="4">
-        <v>1394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D65" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D66" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>110</v>
@@ -1931,26 +1928,26 @@
         <v>70</v>
       </c>
       <c r="D67" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="4">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="D68" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>107</v>
@@ -1959,21 +1956,21 @@
         <v>73</v>
       </c>
       <c r="D69" s="5">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="D70" s="5">
-        <v>695</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,10 +1981,10 @@
         <v>107</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="5">
-        <v>1457</v>
+        <v>75</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,80 +1995,80 @@
         <v>107</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D72" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D73" s="4">
-        <v>1030</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D74" s="4">
-        <v>1468</v>
+        <v>884</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D75" s="4">
-        <v>884</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D76" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D77" s="4">
-        <v>107</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2085,40 +2082,40 @@
         <v>81</v>
       </c>
       <c r="D78" s="4">
-        <v>438</v>
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D79" s="4">
-        <v>704</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="4">
-        <v>170</v>
+      <c r="D80" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>107</v>
@@ -2127,26 +2124,26 @@
         <v>83</v>
       </c>
       <c r="D81" s="5">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D82" s="5">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>112</v>
@@ -2155,12 +2152,12 @@
         <v>87</v>
       </c>
       <c r="D83" s="5">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>112</v>
@@ -2169,90 +2166,76 @@
         <v>87</v>
       </c>
       <c r="D84" s="5">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="5">
-        <v>762</v>
+        <v>91</v>
+      </c>
+      <c r="D85" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D86" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D87" s="4">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D88" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D89" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2262,7 +2245,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D90">
+  <conditionalFormatting sqref="A2:D89">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F5BF3-90B4-457F-8B44-2415A3E8C226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E471D-01D0-4697-B906-092C016E281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="165">
   <si>
     <t>Complemento</t>
   </si>
@@ -389,9 +389,6 @@
     <t>S110020</t>
   </si>
   <si>
-    <t>591</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
   </si>
   <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>FILME PVC PLASTICO - 300 M</t>
@@ -981,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1003,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>107</v>
@@ -1121,7 +1115,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>107</v>
@@ -1135,13 +1129,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="4">
         <v>1184</v>
@@ -1191,7 +1185,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>108</v>
@@ -1200,12 +1194,12 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>108</v>
@@ -1275,7 +1269,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>107</v>
@@ -1284,12 +1278,12 @@
         <v>96</v>
       </c>
       <c r="D21" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>107</v>
@@ -1298,12 +1292,12 @@
         <v>96</v>
       </c>
       <c r="D22" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>107</v>
@@ -1312,12 +1306,12 @@
         <v>96</v>
       </c>
       <c r="D23" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>107</v>
@@ -1326,12 +1320,12 @@
         <v>96</v>
       </c>
       <c r="D24" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>107</v>
@@ -1345,7 +1339,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>107</v>
@@ -1353,13 +1347,13 @@
       <c r="C26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>121</v>
+      <c r="D26" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>107</v>
@@ -1373,7 +1367,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>107</v>
@@ -1387,7 +1381,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>107</v>
@@ -1457,7 +1451,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>107</v>
@@ -1471,13 +1465,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1513,7 +1507,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>107</v>
@@ -1527,7 +1521,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>107</v>
@@ -1555,7 +1549,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>108</v>
@@ -1583,7 +1577,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>107</v>
@@ -1625,7 +1619,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>107</v>
@@ -1639,7 +1633,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>107</v>
@@ -1667,13 +1661,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D49" s="4">
         <v>33</v>
@@ -1681,13 +1675,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D50" s="4">
         <v>33</v>
@@ -1695,13 +1689,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" s="4">
         <v>32</v>
@@ -1723,13 +1717,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D53" s="4">
         <v>1181</v>
@@ -1737,13 +1731,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D54" s="4">
         <v>1172</v>
@@ -1751,13 +1745,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D55" s="4">
         <v>1173</v>
@@ -1765,13 +1759,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D56" s="4">
         <v>1174</v>
@@ -1801,13 +1795,13 @@
       <c r="C58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>116</v>
+      <c r="D58" s="5">
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>107</v>
@@ -1821,7 +1815,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>107</v>
@@ -1863,7 +1857,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>109</v>
@@ -1961,13 +1955,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" s="5">
         <v>1457</v>
@@ -1975,7 +1969,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>107</v>
@@ -1989,7 +1983,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>107</v>
@@ -2003,7 +1997,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>107</v>
@@ -2017,13 +2011,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D74" s="4">
         <v>884</v>
@@ -2059,7 +2053,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>109</v>
@@ -2073,7 +2067,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>109</v>
@@ -2185,7 +2179,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>107</v>
@@ -2227,7 +2221,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>107</v>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E471D-01D0-4697-B906-092C016E281B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2F5857-AF24-43F1-A18E-FA3356A0120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -392,9 +392,6 @@
     <t>S020036</t>
   </si>
   <si>
-    <t>SABAO EM BARRA - PACOTE C/5</t>
-  </si>
-  <si>
     <t>S010046</t>
   </si>
   <si>
@@ -534,6 +531,9 @@
   </si>
   <si>
     <t>RODO - C/ CABO 40CM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
   </si>
 </sst>
 </file>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>107</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>107</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D11" s="4">
         <v>1184</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>108</v>
@@ -1194,12 +1194,12 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>108</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>107</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>107</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>107</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>107</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>107</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>107</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>107</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>107</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>107</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>107</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>107</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>107</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>108</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>107</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>107</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>107</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D49" s="4">
         <v>33</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="4">
         <v>33</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="4">
         <v>32</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53" s="4">
         <v>1181</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D54" s="4">
         <v>1172</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55" s="4">
         <v>1173</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" s="4">
         <v>1174</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>107</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>107</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>109</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>107</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>107</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>107</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>107</v>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D74" s="4">
-        <v>884</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>109</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>109</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>107</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>107</v>

--- a/pages/BA_ssoservi_sservico_ssala.xlsx
+++ b/pages/BA_ssoservi_sservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2F5857-AF24-43F1-A18E-FA3356A0120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2873A5F7-D173-4483-8898-979462F5EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FFDF819C-68AD-45CA-89F4-76D1ED907163}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="167">
   <si>
     <t>Complemento</t>
   </si>
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -973,11 +979,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1325,77 +1329,77 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D25" s="5">
-        <v>1436</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="5">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1454</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="4">
-        <v>1454</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1455</v>
+        <v>34</v>
+      </c>
+      <c r="D29" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>107</v>
@@ -1404,12 +1408,12 @@
         <v>34</v>
       </c>
       <c r="D30" s="5">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>107</v>
@@ -1418,12 +1422,12 @@
         <v>34</v>
       </c>
       <c r="D31" s="5">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>107</v>
@@ -1432,54 +1436,54 @@
         <v>34</v>
       </c>
       <c r="D32" s="5">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D33" s="5">
-        <v>898</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1456</v>
+        <v>120</v>
+      </c>
+      <c r="D34" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>107</v>
@@ -1488,91 +1492,91 @@
         <v>39</v>
       </c>
       <c r="D36" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="4">
-        <v>167</v>
+        <v>113</v>
+      </c>
+      <c r="D37" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="5">
-        <v>272</v>
+        <v>41</v>
+      </c>
+      <c r="D38" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D41" s="4">
-        <v>1396</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="D42" s="4">
-        <v>835</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2123,21 +2127,21 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D82" s="5">
-        <v>160</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>112</v>
@@ -2146,12 +2150,12 @@
         <v>87</v>
       </c>
       <c r="D83" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>112</v>
@@ -2160,63 +2164,63 @@
         <v>87</v>
       </c>
       <c r="D84" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="4">
-        <v>211</v>
+        <v>87</v>
+      </c>
+      <c r="D85" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D86" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D87" s="4">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D88" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,13 +2237,32 @@
         <v>1458</v>
       </c>
     </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D90" xr:uid="{E73D8249-D6C0-48EA-B9F3-7DF1B4FEF14D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
+      <sortCondition ref="A1:A90"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="1" priority="43">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D89">
+  <conditionalFormatting sqref="A2:D90">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
